--- a/public/template_barang2.xlsx
+++ b/public/template_barang2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC7F6C8-D1B8-4A24-871C-A61C17ED6345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD1DBA-DC02-4E08-86A2-E46A87DED772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9B48B360-ADFB-4F3E-AFB3-9F51A09CD6DA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>kategori_id</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>SP-002</t>
-  </si>
-  <si>
-    <t>Sapu</t>
   </si>
 </sst>
 </file>
@@ -445,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BDB330-2318-45C4-9926-08E7D5A12157}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,23 +556,6 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>15000</v>
-      </c>
-      <c r="E7">
-        <v>20000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
